--- a/Session_spreadsheet.xlsx
+++ b/Session_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inagakih/Dropbox (Personal)/Spike_sorting/sorted_by_Jrclust/data/ConvertToNWB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703B3A6-7805-F046-A51A-D004F252C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FFBAFD-84A9-6C4C-A50E-EF19DA00E3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38460" yWindow="1220" windowWidth="31440" windowHeight="18840" xr2:uid="{5AE6E099-E467-7544-93D2-E040E2FA3375}"/>
+    <workbookView xWindow="15260" yWindow="460" windowWidth="31440" windowHeight="18840" xr2:uid="{5AE6E099-E467-7544-93D2-E040E2FA3375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="326">
   <si>
     <t>Animal_name</t>
   </si>
@@ -832,9 +832,6 @@
     <t>SC001_102617</t>
   </si>
   <si>
-    <t>SC003</t>
-  </si>
-  <si>
     <t>SC001_102717</t>
   </si>
   <si>
@@ -868,127 +865,67 @@
     <t>SC002_120317</t>
   </si>
   <si>
-    <t>SC010</t>
-  </si>
-  <si>
     <t>SC002_120417</t>
   </si>
   <si>
-    <t>SC011</t>
-  </si>
-  <si>
     <t>SC002_120517</t>
   </si>
   <si>
-    <t>SC012</t>
-  </si>
-  <si>
     <t>SC002_120617</t>
   </si>
   <si>
-    <t>SC013</t>
-  </si>
-  <si>
     <t>SC002_120717</t>
   </si>
   <si>
-    <t>SC014</t>
-  </si>
-  <si>
     <t>SC002_120817</t>
   </si>
   <si>
-    <t>SC015</t>
-  </si>
-  <si>
     <t>SC002_120917</t>
   </si>
   <si>
-    <t>SC016</t>
-  </si>
-  <si>
     <t>SC004_121817</t>
   </si>
   <si>
-    <t>SC017</t>
-  </si>
-  <si>
     <t>SC004_121917</t>
   </si>
   <si>
-    <t>SC018</t>
-  </si>
-  <si>
     <t>SC004_122017</t>
   </si>
   <si>
-    <t>SC019</t>
-  </si>
-  <si>
     <t>SC004_122117</t>
   </si>
   <si>
     <t>SC004_122217</t>
   </si>
   <si>
-    <t>SC021</t>
-  </si>
-  <si>
     <t>SC004_122417</t>
   </si>
   <si>
-    <t>SC022</t>
-  </si>
-  <si>
     <t>SC004_122517</t>
   </si>
   <si>
-    <t>SC023</t>
-  </si>
-  <si>
     <t>SC005_121817</t>
   </si>
   <si>
-    <t>SC024</t>
-  </si>
-  <si>
     <t>SC005_121917</t>
   </si>
   <si>
-    <t>SC025</t>
-  </si>
-  <si>
     <t>SC005_122017</t>
   </si>
   <si>
-    <t>SC026</t>
-  </si>
-  <si>
     <t>SC005_122117</t>
   </si>
   <si>
-    <t>SC027</t>
-  </si>
-  <si>
     <t>SC005_122217</t>
   </si>
   <si>
     <t>SC005_122317</t>
   </si>
   <si>
-    <t>SC029</t>
-  </si>
-  <si>
     <t>SC005_122417</t>
   </si>
   <si>
-    <t>SC030</t>
-  </si>
-  <si>
     <t>SC005_122517</t>
-  </si>
-  <si>
-    <t>SC031</t>
   </si>
   <si>
     <t>SC006_010918</t>
@@ -1439,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40874A9B-07D9-4B41-A88F-E68872004F7E}">
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264:F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,10 +1410,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1496,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1516,7 +1453,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1536,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1556,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1576,7 +1513,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1596,7 +1533,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1616,7 +1553,7 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1636,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1656,7 +1593,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,7 +1613,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1696,7 +1633,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1716,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1736,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1756,7 +1693,7 @@
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1776,7 +1713,7 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1796,7 +1733,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1816,7 +1753,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1836,7 +1773,7 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1856,7 +1793,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1876,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1896,7 +1833,7 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1916,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1936,7 +1873,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1956,7 +1893,7 @@
         <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1976,7 +1913,7 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1996,7 +1933,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2016,7 +1953,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2036,7 +1973,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2056,7 +1993,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2076,7 +2013,7 @@
         <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2096,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2116,7 +2053,7 @@
         <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2136,7 +2073,7 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2156,7 +2093,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,7 +2113,7 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2196,10 +2133,10 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2219,7 +2156,7 @@
         <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2239,10 +2176,10 @@
         <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2262,10 +2199,10 @@
         <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2285,10 +2222,10 @@
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2308,7 +2245,7 @@
         <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2328,10 +2265,10 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2351,10 +2288,10 @@
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2374,10 +2311,10 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2397,10 +2334,10 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2420,7 +2357,7 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2440,7 +2377,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2460,10 +2397,10 @@
         <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2483,10 +2420,10 @@
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2506,10 +2443,10 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G51" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2529,10 +2466,10 @@
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2552,7 +2489,7 @@
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,7 +2509,7 @@
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2592,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2612,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2632,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2672,10 +2609,10 @@
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2695,10 +2632,10 @@
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G60" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2718,7 +2655,7 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2738,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2758,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2778,7 +2715,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2798,7 +2735,7 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2818,7 +2755,7 @@
         <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2838,10 +2775,10 @@
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G67" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2861,7 +2798,7 @@
         <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,7 +2818,7 @@
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2901,7 +2838,7 @@
         <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2921,7 +2858,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2941,7 +2878,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2961,7 +2898,7 @@
         <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,7 +2918,7 @@
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3001,7 +2938,7 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3021,7 +2958,7 @@
         <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3041,7 +2978,7 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3061,10 +2998,10 @@
         <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G78" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3084,7 +3021,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3104,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3124,10 +3061,10 @@
         <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G81" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3147,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3167,7 +3104,7 @@
         <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3187,7 +3124,7 @@
         <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3207,7 +3144,7 @@
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,7 +3164,7 @@
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3247,7 +3184,7 @@
         <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3267,7 +3204,7 @@
         <v>66</v>
       </c>
       <c r="F88" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3287,7 +3224,7 @@
         <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3307,7 +3244,7 @@
         <v>72</v>
       </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,7 +3264,7 @@
         <v>56</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3347,10 +3284,10 @@
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G92" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3370,10 +3307,10 @@
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G93" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3393,10 +3330,10 @@
         <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G94" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3416,7 +3353,7 @@
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3436,7 +3373,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3456,7 +3393,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3476,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3496,10 +3433,10 @@
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G99" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3519,10 +3456,10 @@
         <v>68</v>
       </c>
       <c r="F100" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G100" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3542,10 +3479,10 @@
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G101" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3565,7 +3502,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3585,7 +3522,7 @@
         <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3605,7 +3542,7 @@
         <v>58</v>
       </c>
       <c r="F104" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3625,7 +3562,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3665,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3685,7 +3622,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3705,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3725,7 +3662,7 @@
         <v>56</v>
       </c>
       <c r="F110" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3745,7 +3682,7 @@
         <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3765,7 +3702,7 @@
         <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3785,7 +3722,7 @@
         <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3805,7 +3742,7 @@
         <v>51</v>
       </c>
       <c r="F114" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3825,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3845,7 +3782,7 @@
         <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3865,7 +3802,7 @@
         <v>26</v>
       </c>
       <c r="F117" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,7 +3822,7 @@
         <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3905,7 +3842,7 @@
         <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3925,7 +3862,7 @@
         <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3945,7 +3882,7 @@
         <v>50</v>
       </c>
       <c r="F121" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3965,7 +3902,7 @@
         <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3985,7 +3922,7 @@
         <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4005,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4025,7 +3962,7 @@
         <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4045,7 +3982,7 @@
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4065,7 +4002,7 @@
         <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4085,7 +4022,7 @@
         <v>67</v>
       </c>
       <c r="F128" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4105,7 +4042,7 @@
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4125,7 +4062,7 @@
         <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,7 +4082,7 @@
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4165,7 +4102,7 @@
         <v>19</v>
       </c>
       <c r="F132" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4185,7 +4122,7 @@
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,7 +4142,7 @@
         <v>48</v>
       </c>
       <c r="F134" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F135" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4245,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4265,7 +4202,7 @@
         <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4285,7 +4222,7 @@
         <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4305,7 +4242,7 @@
         <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4345,7 +4282,7 @@
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4365,7 +4302,7 @@
         <v>64</v>
       </c>
       <c r="F142" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4385,7 +4322,7 @@
         <v>62</v>
       </c>
       <c r="F143" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4405,7 +4342,7 @@
         <v>68</v>
       </c>
       <c r="F144" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4425,7 +4362,7 @@
         <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4445,7 +4382,7 @@
         <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4465,7 +4402,7 @@
         <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4485,7 +4422,7 @@
         <v>64</v>
       </c>
       <c r="F148" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4505,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4525,7 +4462,7 @@
         <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4545,7 +4482,7 @@
         <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4565,7 +4502,7 @@
         <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4585,7 +4522,7 @@
         <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4605,7 +4542,7 @@
         <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4625,7 +4562,7 @@
         <v>61</v>
       </c>
       <c r="F155" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4645,7 +4582,7 @@
         <v>45</v>
       </c>
       <c r="F156" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4665,7 +4602,7 @@
         <v>60</v>
       </c>
       <c r="F157" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,7 +4622,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4705,7 +4642,7 @@
         <v>18</v>
       </c>
       <c r="F159" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4725,7 +4662,7 @@
         <v>18</v>
       </c>
       <c r="F160" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4745,7 +4682,7 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -4765,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4785,7 +4722,7 @@
         <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4805,7 +4742,7 @@
         <v>21</v>
       </c>
       <c r="F164" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4825,7 +4762,7 @@
         <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4845,7 +4782,7 @@
         <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -4865,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -4885,7 +4822,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4905,7 +4842,7 @@
         <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -4925,7 +4862,7 @@
         <v>55</v>
       </c>
       <c r="F170" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -4945,7 +4882,7 @@
         <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -4965,7 +4902,7 @@
         <v>51</v>
       </c>
       <c r="F172" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4985,7 +4922,7 @@
         <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5005,7 +4942,7 @@
         <v>50</v>
       </c>
       <c r="F174" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5025,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5045,7 +4982,7 @@
         <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -5065,7 +5002,7 @@
         <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -5085,7 +5022,7 @@
         <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5105,7 +5042,7 @@
         <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5125,7 +5062,7 @@
         <v>66</v>
       </c>
       <c r="F180" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5145,7 +5082,7 @@
         <v>27</v>
       </c>
       <c r="F181" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5165,7 +5102,7 @@
         <v>27</v>
       </c>
       <c r="F182" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5185,7 +5122,7 @@
         <v>15</v>
       </c>
       <c r="F183" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -5205,7 +5142,7 @@
         <v>55</v>
       </c>
       <c r="F184" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -5225,7 +5162,7 @@
         <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -5245,7 +5182,7 @@
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -5265,7 +5202,7 @@
         <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -5285,7 +5222,7 @@
         <v>27</v>
       </c>
       <c r="F188" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -5305,7 +5242,7 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -5325,7 +5262,7 @@
         <v>32</v>
       </c>
       <c r="F190" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -5345,7 +5282,7 @@
         <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -5365,7 +5302,7 @@
         <v>31</v>
       </c>
       <c r="F192" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -5385,7 +5322,7 @@
         <v>29</v>
       </c>
       <c r="F193" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -5405,7 +5342,7 @@
         <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5425,7 +5362,7 @@
         <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5445,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="F196" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5465,7 +5402,7 @@
         <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5485,7 +5422,7 @@
         <v>19</v>
       </c>
       <c r="F198" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5505,7 +5442,7 @@
         <v>23</v>
       </c>
       <c r="F199" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5525,7 +5462,7 @@
         <v>28</v>
       </c>
       <c r="F200" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5545,7 +5482,7 @@
         <v>15</v>
       </c>
       <c r="F201" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5565,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5585,7 +5522,7 @@
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5605,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5625,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5645,7 +5582,7 @@
         <v>21</v>
       </c>
       <c r="F206" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5665,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="F207" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5685,7 +5622,7 @@
         <v>27</v>
       </c>
       <c r="F208" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5705,7 +5642,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5725,7 +5662,7 @@
         <v>24</v>
       </c>
       <c r="F210" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5745,7 +5682,7 @@
         <v>19</v>
       </c>
       <c r="F211" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5765,7 +5702,7 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5785,7 +5722,7 @@
         <v>32</v>
       </c>
       <c r="F213" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5805,12 +5742,12 @@
         <v>17</v>
       </c>
       <c r="F214" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B215" t="s">
         <v>265</v>
@@ -5825,15 +5762,15 @@
         <v>18</v>
       </c>
       <c r="F215" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>262</v>
+      </c>
+      <c r="B216" t="s">
         <v>266</v>
-      </c>
-      <c r="B216" t="s">
-        <v>267</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -5845,15 +5782,15 @@
         <v>5</v>
       </c>
       <c r="F216" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>262</v>
+      </c>
+      <c r="B217" t="s">
         <v>268</v>
-      </c>
-      <c r="B217" t="s">
-        <v>269</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -5865,15 +5802,15 @@
         <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>262</v>
+      </c>
+      <c r="B218" t="s">
         <v>270</v>
-      </c>
-      <c r="B218" t="s">
-        <v>271</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -5885,15 +5822,15 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>262</v>
+      </c>
+      <c r="B219" t="s">
         <v>272</v>
-      </c>
-      <c r="B219" t="s">
-        <v>273</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -5905,15 +5842,15 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>262</v>
+      </c>
+      <c r="B220" t="s">
         <v>274</v>
-      </c>
-      <c r="B220" t="s">
-        <v>275</v>
       </c>
       <c r="C220" t="s">
         <v>233</v>
@@ -5925,15 +5862,15 @@
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C221" t="s">
         <v>233</v>
@@ -5945,15 +5882,15 @@
         <v>9</v>
       </c>
       <c r="F221" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="B222" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C222" t="s">
         <v>233</v>
@@ -5965,15 +5902,15 @@
         <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B223" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -5985,15 +5922,15 @@
         <v>5</v>
       </c>
       <c r="F223" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B224" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -6005,15 +5942,15 @@
         <v>18</v>
       </c>
       <c r="F224" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B225" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C225" t="s">
         <v>233</v>
@@ -6025,15 +5962,15 @@
         <v>19</v>
       </c>
       <c r="F225" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B226" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -6045,15 +5982,15 @@
         <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B227" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C227" t="s">
         <v>233</v>
@@ -6065,15 +6002,15 @@
         <v>34</v>
       </c>
       <c r="F227" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B228" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -6085,15 +6022,15 @@
         <v>3</v>
       </c>
       <c r="F228" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B229" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C229" t="s">
         <v>233</v>
@@ -6105,15 +6042,15 @@
         <v>74</v>
       </c>
       <c r="F229" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B230" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C230" t="s">
         <v>233</v>
@@ -6125,15 +6062,15 @@
         <v>60</v>
       </c>
       <c r="F230" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B231" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C231" t="s">
         <v>233</v>
@@ -6145,15 +6082,15 @@
         <v>37</v>
       </c>
       <c r="F231" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B232" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -6165,15 +6102,15 @@
         <v>31</v>
       </c>
       <c r="F232" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="B233" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C233" t="s">
         <v>233</v>
@@ -6185,15 +6122,15 @@
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C234" t="s">
         <v>233</v>
@@ -6205,15 +6142,15 @@
         <v>32</v>
       </c>
       <c r="F234" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C235" t="s">
         <v>233</v>
@@ -6225,15 +6162,15 @@
         <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -6245,15 +6182,15 @@
         <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B237" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -6265,15 +6202,15 @@
         <v>23</v>
       </c>
       <c r="F237" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="B238" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -6285,15 +6222,15 @@
         <v>16</v>
       </c>
       <c r="F238" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B239" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C239" t="s">
         <v>233</v>
@@ -6305,15 +6242,15 @@
         <v>22</v>
       </c>
       <c r="F239" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="B240" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C240" t="s">
         <v>233</v>
@@ -6325,15 +6262,15 @@
         <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="B241" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -6345,15 +6282,15 @@
         <v>27</v>
       </c>
       <c r="F241" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="B242" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C242" t="s">
         <v>233</v>
@@ -6365,15 +6302,15 @@
         <v>18</v>
       </c>
       <c r="F242" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="B243" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C243" t="s">
         <v>233</v>
@@ -6385,15 +6322,15 @@
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="B244" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C244" t="s">
         <v>233</v>
@@ -6405,15 +6342,15 @@
         <v>29</v>
       </c>
       <c r="F244" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B245" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C245" t="s">
         <v>233</v>
@@ -6425,15 +6362,15 @@
         <v>7</v>
       </c>
       <c r="F245" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B246" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C246" t="s">
         <v>233</v>
@@ -6445,15 +6382,15 @@
         <v>24</v>
       </c>
       <c r="F246" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C247" t="s">
         <v>233</v>
@@ -6465,15 +6402,15 @@
         <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B248" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C248" t="s">
         <v>233</v>
@@ -6485,15 +6422,15 @@
         <v>16</v>
       </c>
       <c r="F248" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B249" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -6505,15 +6442,15 @@
         <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B250" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -6525,15 +6462,15 @@
         <v>19</v>
       </c>
       <c r="F250" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B251" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -6545,15 +6482,15 @@
         <v>26</v>
       </c>
       <c r="F251" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B252" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C252" t="s">
         <v>233</v>
@@ -6565,15 +6502,15 @@
         <v>40</v>
       </c>
       <c r="F252" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B253" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C253" t="s">
         <v>233</v>
@@ -6585,15 +6522,15 @@
         <v>37</v>
       </c>
       <c r="F253" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B254" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C254" t="s">
         <v>233</v>
@@ -6605,15 +6542,15 @@
         <v>32</v>
       </c>
       <c r="F254" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B255" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C255" t="s">
         <v>233</v>
@@ -6625,15 +6562,15 @@
         <v>29</v>
       </c>
       <c r="F255" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B256" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C256" t="s">
         <v>233</v>
@@ -6645,15 +6582,15 @@
         <v>30</v>
       </c>
       <c r="F256" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B257" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C257" t="s">
         <v>233</v>
@@ -6665,15 +6602,15 @@
         <v>38</v>
       </c>
       <c r="F257" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B258" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C258" t="s">
         <v>233</v>
@@ -6685,15 +6622,15 @@
         <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B259" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C259" t="s">
         <v>233</v>
@@ -6705,15 +6642,15 @@
         <v>41</v>
       </c>
       <c r="F259" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B260" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C260" t="s">
         <v>233</v>
@@ -6725,15 +6662,15 @@
         <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B261" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C261" t="s">
         <v>233</v>
@@ -6745,15 +6682,15 @@
         <v>43</v>
       </c>
       <c r="F261" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C262" t="s">
         <v>233</v>
@@ -6765,15 +6702,15 @@
         <v>27</v>
       </c>
       <c r="F262" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B263" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -6785,727 +6722,7 @@
         <v>53</v>
       </c>
       <c r="F263" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>264</v>
-      </c>
-      <c r="B264" t="s">
-        <v>289</v>
-      </c>
-      <c r="C264" t="s">
-        <v>233</v>
-      </c>
-      <c r="D264" t="s">
-        <v>168</v>
-      </c>
-      <c r="E264">
-        <v>3</v>
-      </c>
-      <c r="F264" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>268</v>
-      </c>
-      <c r="B265" t="s">
-        <v>291</v>
-      </c>
-      <c r="C265" t="s">
-        <v>233</v>
-      </c>
-      <c r="D265" t="s">
-        <v>168</v>
-      </c>
-      <c r="E265">
-        <v>74</v>
-      </c>
-      <c r="F265" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>268</v>
-      </c>
-      <c r="B266" t="s">
-        <v>293</v>
-      </c>
-      <c r="C266" t="s">
-        <v>233</v>
-      </c>
-      <c r="D266" t="s">
-        <v>168</v>
-      </c>
-      <c r="E266">
-        <v>60</v>
-      </c>
-      <c r="F266" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>268</v>
-      </c>
-      <c r="B267" t="s">
-        <v>295</v>
-      </c>
-      <c r="C267" t="s">
-        <v>233</v>
-      </c>
-      <c r="D267" t="s">
-        <v>168</v>
-      </c>
-      <c r="E267">
-        <v>37</v>
-      </c>
-      <c r="F267" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268" t="s">
-        <v>297</v>
-      </c>
-      <c r="C268" t="s">
-        <v>233</v>
-      </c>
-      <c r="D268" t="s">
-        <v>168</v>
-      </c>
-      <c r="E268">
-        <v>31</v>
-      </c>
-      <c r="F268" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>298</v>
-      </c>
-      <c r="C269" t="s">
-        <v>233</v>
-      </c>
-      <c r="D269" t="s">
-        <v>168</v>
-      </c>
-      <c r="E269">
-        <v>36</v>
-      </c>
-      <c r="F269" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>300</v>
-      </c>
-      <c r="C270" t="s">
-        <v>233</v>
-      </c>
-      <c r="D270" t="s">
-        <v>168</v>
-      </c>
-      <c r="E270">
-        <v>32</v>
-      </c>
-      <c r="F270" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" t="s">
-        <v>302</v>
-      </c>
-      <c r="C271" t="s">
-        <v>233</v>
-      </c>
-      <c r="D271" t="s">
-        <v>168</v>
-      </c>
-      <c r="E271">
-        <v>39</v>
-      </c>
-      <c r="F271" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>304</v>
-      </c>
-      <c r="C272" t="s">
-        <v>233</v>
-      </c>
-      <c r="D272" t="s">
-        <v>168</v>
-      </c>
-      <c r="E272">
-        <v>38</v>
-      </c>
-      <c r="F272" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>270</v>
-      </c>
-      <c r="B273" t="s">
-        <v>306</v>
-      </c>
-      <c r="C273" t="s">
-        <v>233</v>
-      </c>
-      <c r="D273" t="s">
-        <v>168</v>
-      </c>
-      <c r="E273">
-        <v>23</v>
-      </c>
-      <c r="F273" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>270</v>
-      </c>
-      <c r="B274" t="s">
-        <v>308</v>
-      </c>
-      <c r="C274" t="s">
-        <v>233</v>
-      </c>
-      <c r="D274" t="s">
-        <v>168</v>
-      </c>
-      <c r="E274">
-        <v>16</v>
-      </c>
-      <c r="F274" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>270</v>
-      </c>
-      <c r="B275" t="s">
-        <v>310</v>
-      </c>
-      <c r="C275" t="s">
-        <v>233</v>
-      </c>
-      <c r="D275" t="s">
-        <v>168</v>
-      </c>
-      <c r="E275">
-        <v>22</v>
-      </c>
-      <c r="F275" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>270</v>
-      </c>
-      <c r="B276" t="s">
-        <v>312</v>
-      </c>
-      <c r="C276" t="s">
-        <v>233</v>
-      </c>
-      <c r="D276" t="s">
-        <v>168</v>
-      </c>
-      <c r="E276">
-        <v>47</v>
-      </c>
-      <c r="F276" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>270</v>
-      </c>
-      <c r="B277" t="s">
-        <v>313</v>
-      </c>
-      <c r="C277" t="s">
-        <v>233</v>
-      </c>
-      <c r="D277" t="s">
-        <v>168</v>
-      </c>
-      <c r="E277">
-        <v>27</v>
-      </c>
-      <c r="F277" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>270</v>
-      </c>
-      <c r="B278" t="s">
-        <v>315</v>
-      </c>
-      <c r="C278" t="s">
-        <v>233</v>
-      </c>
-      <c r="D278" t="s">
-        <v>168</v>
-      </c>
-      <c r="E278">
-        <v>18</v>
-      </c>
-      <c r="F278" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>270</v>
-      </c>
-      <c r="B279" t="s">
-        <v>317</v>
-      </c>
-      <c r="C279" t="s">
-        <v>233</v>
-      </c>
-      <c r="D279" t="s">
-        <v>168</v>
-      </c>
-      <c r="E279">
-        <v>14</v>
-      </c>
-      <c r="F279" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>272</v>
-      </c>
-      <c r="B280" t="s">
-        <v>319</v>
-      </c>
-      <c r="C280" t="s">
-        <v>233</v>
-      </c>
-      <c r="D280" t="s">
-        <v>168</v>
-      </c>
-      <c r="E280">
-        <v>29</v>
-      </c>
-      <c r="F280" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>272</v>
-      </c>
-      <c r="B281" t="s">
-        <v>320</v>
-      </c>
-      <c r="C281" t="s">
-        <v>233</v>
-      </c>
-      <c r="D281" t="s">
-        <v>168</v>
-      </c>
-      <c r="E281">
-        <v>7</v>
-      </c>
-      <c r="F281" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>272</v>
-      </c>
-      <c r="B282" t="s">
-        <v>321</v>
-      </c>
-      <c r="C282" t="s">
-        <v>233</v>
-      </c>
-      <c r="D282" t="s">
-        <v>168</v>
-      </c>
-      <c r="E282">
-        <v>24</v>
-      </c>
-      <c r="F282" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>272</v>
-      </c>
-      <c r="B283" t="s">
-        <v>322</v>
-      </c>
-      <c r="C283" t="s">
-        <v>233</v>
-      </c>
-      <c r="D283" t="s">
-        <v>168</v>
-      </c>
-      <c r="E283">
-        <v>12</v>
-      </c>
-      <c r="F283" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>272</v>
-      </c>
-      <c r="B284" t="s">
-        <v>323</v>
-      </c>
-      <c r="C284" t="s">
-        <v>233</v>
-      </c>
-      <c r="D284" t="s">
-        <v>168</v>
-      </c>
-      <c r="E284">
-        <v>16</v>
-      </c>
-      <c r="F284" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>272</v>
-      </c>
-      <c r="B285" t="s">
-        <v>324</v>
-      </c>
-      <c r="C285" t="s">
-        <v>233</v>
-      </c>
-      <c r="D285" t="s">
-        <v>168</v>
-      </c>
-      <c r="E285">
-        <v>7</v>
-      </c>
-      <c r="F285" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>272</v>
-      </c>
-      <c r="B286" t="s">
-        <v>325</v>
-      </c>
-      <c r="C286" t="s">
-        <v>233</v>
-      </c>
-      <c r="D286" t="s">
-        <v>168</v>
-      </c>
-      <c r="E286">
-        <v>19</v>
-      </c>
-      <c r="F286" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>272</v>
-      </c>
-      <c r="B287" t="s">
-        <v>326</v>
-      </c>
-      <c r="C287" t="s">
-        <v>233</v>
-      </c>
-      <c r="D287" t="s">
-        <v>168</v>
-      </c>
-      <c r="E287">
-        <v>26</v>
-      </c>
-      <c r="F287" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>274</v>
-      </c>
-      <c r="B288" t="s">
-        <v>327</v>
-      </c>
-      <c r="C288" t="s">
-        <v>233</v>
-      </c>
-      <c r="D288" t="s">
-        <v>168</v>
-      </c>
-      <c r="E288">
-        <v>40</v>
-      </c>
-      <c r="F288" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>274</v>
-      </c>
-      <c r="B289" t="s">
-        <v>328</v>
-      </c>
-      <c r="C289" t="s">
-        <v>233</v>
-      </c>
-      <c r="D289" t="s">
-        <v>168</v>
-      </c>
-      <c r="E289">
-        <v>37</v>
-      </c>
-      <c r="F289" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>274</v>
-      </c>
-      <c r="B290" t="s">
-        <v>329</v>
-      </c>
-      <c r="C290" t="s">
-        <v>233</v>
-      </c>
-      <c r="D290" t="s">
-        <v>168</v>
-      </c>
-      <c r="E290">
-        <v>32</v>
-      </c>
-      <c r="F290" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>274</v>
-      </c>
-      <c r="B291" t="s">
-        <v>330</v>
-      </c>
-      <c r="C291" t="s">
-        <v>233</v>
-      </c>
-      <c r="D291" t="s">
-        <v>168</v>
-      </c>
-      <c r="E291">
-        <v>29</v>
-      </c>
-      <c r="F291" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>274</v>
-      </c>
-      <c r="B292" t="s">
-        <v>331</v>
-      </c>
-      <c r="C292" t="s">
-        <v>233</v>
-      </c>
-      <c r="D292" t="s">
-        <v>168</v>
-      </c>
-      <c r="E292">
-        <v>30</v>
-      </c>
-      <c r="F292" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>274</v>
-      </c>
-      <c r="B293" t="s">
-        <v>332</v>
-      </c>
-      <c r="C293" t="s">
-        <v>233</v>
-      </c>
-      <c r="D293" t="s">
-        <v>168</v>
-      </c>
-      <c r="E293">
-        <v>38</v>
-      </c>
-      <c r="F293" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>274</v>
-      </c>
-      <c r="B294" t="s">
-        <v>333</v>
-      </c>
-      <c r="C294" t="s">
-        <v>233</v>
-      </c>
-      <c r="D294" t="s">
-        <v>168</v>
-      </c>
-      <c r="E294">
-        <v>43</v>
-      </c>
-      <c r="F294" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>274</v>
-      </c>
-      <c r="B295" t="s">
-        <v>334</v>
-      </c>
-      <c r="C295" t="s">
-        <v>233</v>
-      </c>
-      <c r="D295" t="s">
-        <v>168</v>
-      </c>
-      <c r="E295">
-        <v>41</v>
-      </c>
-      <c r="F295" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>274</v>
-      </c>
-      <c r="B296" t="s">
-        <v>335</v>
-      </c>
-      <c r="C296" t="s">
-        <v>233</v>
-      </c>
-      <c r="D296" t="s">
-        <v>168</v>
-      </c>
-      <c r="E296">
-        <v>36</v>
-      </c>
-      <c r="F296" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>336</v>
-      </c>
-      <c r="B297" t="s">
-        <v>337</v>
-      </c>
-      <c r="C297" t="s">
-        <v>233</v>
-      </c>
-      <c r="D297" t="s">
-        <v>168</v>
-      </c>
-      <c r="E297">
-        <v>43</v>
-      </c>
-      <c r="F297" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>336</v>
-      </c>
-      <c r="B298" t="s">
-        <v>338</v>
-      </c>
-      <c r="C298" t="s">
-        <v>233</v>
-      </c>
-      <c r="D298" t="s">
-        <v>168</v>
-      </c>
-      <c r="E298">
-        <v>27</v>
-      </c>
-      <c r="F298" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>336</v>
-      </c>
-      <c r="B299" t="s">
-        <v>339</v>
-      </c>
-      <c r="C299" t="s">
-        <v>233</v>
-      </c>
-      <c r="D299" t="s">
-        <v>168</v>
-      </c>
-      <c r="E299">
-        <v>53</v>
-      </c>
-      <c r="F299" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
